--- a/biology/Zoologie/Les_Bisounours_(série_télévisée_d'animation)/Les_Bisounours_(série_télévisée_d'animation).xlsx
+++ b/biology/Zoologie/Les_Bisounours_(série_télévisée_d'animation)/Les_Bisounours_(série_télévisée_d'animation).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Bisounours_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+          <t>Les_Bisounours_(série_télévisée_d'animation)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bisounours ou Les Nouveaux Bisounours, ou Les Calinours ou La Famille Calinours au Québec (The Care Bears) est une série télévisée franco-américano-canadienne pour la jeunesse en soixante épisodes de 25 minutes, créée d'après les jouets éponymes et diffusée entre le 14 septembre 1985 et le 25 décembre 1988 en syndication aux États-Unis et sur le réseau Global au Canada.
-En France, la saison 1 (DIC) a été diffusée à partir du 14 octobre 1985 dans l'émission Salut les petits loups sur TF1. La saison 2 (Nelvana) a été diffusée à partir du 2 septembre 1987 dans le Club Dorothée sur TF1. Rediffusion de la saison 2 à partir du 20 février 1991 dans Youpi ! sur La Cinq. Les saisons 3 et 4 (Nelvana) ont été diffusées sous le titre Les Nouveaux Bisounours (doublage québécois) du 7 janvier 1989 au 1er juillet 1989 dans Samdynamite sur FR3. Au Québec, des épisodes ont été diffusés sporadiquement à partir du 14 novembre 1984[1] sur le réseau TVA ou sur certaines stations du réseau Pathonic, le film a été diffusé à partir du 6 décembre 1986 à Super Écran[2], et la deuxième saison (celle de Nelvana) à partir du 5 septembre 1987 à la Télévision de Radio-Canada[3].
-Une nouvelle version d'animation 3D, Les Bisounours : Aventure à Bisouville, créée en 2007, a été diffusée en France sur France 5 dans Zouzous le 10 août 2009[4] puis sur Piwi et Gulli.
+En France, la saison 1 (DIC) a été diffusée à partir du 14 octobre 1985 dans l'émission Salut les petits loups sur TF1. La saison 2 (Nelvana) a été diffusée à partir du 2 septembre 1987 dans le Club Dorothée sur TF1. Rediffusion de la saison 2 à partir du 20 février 1991 dans Youpi ! sur La Cinq. Les saisons 3 et 4 (Nelvana) ont été diffusées sous le titre Les Nouveaux Bisounours (doublage québécois) du 7 janvier 1989 au 1er juillet 1989 dans Samdynamite sur FR3. Au Québec, des épisodes ont été diffusés sporadiquement à partir du 14 novembre 1984 sur le réseau TVA ou sur certaines stations du réseau Pathonic, le film a été diffusé à partir du 6 décembre 1986 à Super Écran, et la deuxième saison (celle de Nelvana) à partir du 5 septembre 1987 à la Télévision de Radio-Canada.
+Une nouvelle version d'animation 3D, Les Bisounours : Aventure à Bisouville, créée en 2007, a été diffusée en France sur France 5 dans Zouzous le 10 août 2009 puis sur Piwi et Gulli.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Bisounours_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+          <t>Les_Bisounours_(série_télévisée_d'animation)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bisounours sont de petits oursons vivant dans les nuages et se déplaçant sur des arcs-en-ciel. Chacun des oursons possède son propre pictogramme et son propre pouvoir. Ces pouvoirs sont utilisés pour aider les enfants à combattre le Mal, personnifié par le professeur Cœur-de-pierre et le sorcier Sans-Cœur... 
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Bisounours_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+          <t>Les_Bisounours_(série_télévisée_d'animation)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Bisounours_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+          <t>Les_Bisounours_(série_télévisée_d'animation)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,18 +588,56 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Voix originales
-Voix françaises
-Roger Carel : Groschéri / Grosfarceur / Groscadeau / Toucostaud l'éléphant / GrosVeinard (Épisode 5)
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Roger Carel : Groschéri / Grosfarceur / Groscadeau / Toucostaud l'éléphant / GrosVeinard (Épisode 5)
 Serge Lhorca : Toubrave, Grognon (Épisode 7 et 10)
 Gérard Hernandez : Grognon (Épisode 10 à 19) / Toufou le lapin (Épisode 1,17 et 18)
 Monique Thierry : Groscopain / Toudoux l'agneau / Toufou Le Lapin (Épisode 7)
 Pierre Trabaud : Grosbisou / Groschampion / Toufripon le singe / Toudodu le cochon (Épisode 9 et 11)
 Amélie Morin : Grosjojo (Épisode 13 à 21)
 Jackie Berger : Grosdodo / Grosgâteau (Épisode 1) / Grostaquin (Épisode 2 et 4)
-Nadine Delanoë : Toufier le chat (Épisode 5)
-Voix françaises (version Nelvana)
-Francis Lax : Toucourage, Grosfarceur
+Nadine Delanoë : Toufier le chat (Épisode 5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Bisounours_(série_télévisée_d'animation)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Bisounours_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix françaises (version Nelvana)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Francis Lax : Toucourage, Grosfarceur
 Anne Rondeleux : Grostendre
 Joëlle Guigui : Toufou
 Albert Augier : Toutcostaud, Groscopain, Grosjojo
@@ -596,9 +650,43 @@
 Christian Pelissier : SansCœur
 Évelyne Grandjean : Maminours
 Marie-Laure Beneston : Toudodu le cochon
-Odile Schmitt : Toumalin le raton laveur
-Voix québécoises (version Nelvana)
-Le doublage français fut réalisé au Québec par la société Cinélume (Montréal).
+Odile Schmitt : Toumalin le raton laveur</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Bisounours_(série_télévisée_d'animation)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Bisounours_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Voix québécoises (version Nelvana)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le doublage français fut réalisé au Québec par la société Cinélume (Montréal).
 Diane Arcand : Cupinours
 Flora Balzano : Dounours
 Marielle Bernard : Gailourson
@@ -608,75 +696,7 @@
 Daniel Lesourd : Grognours
 Johanne Léveillé : Désirours
 Violette Chauveau : Alouate
- Source et légende : version québécoise (VQ) sur Doublage.qc.ca[5]
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Les_Bisounours_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Bisounours_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Épisodes</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Plusieurs épisodes de 25 minutes contenaient deux histoires.
-Spéciaux télé
-The Care Bears in the Land Without Feelings (en) (1983)
-The Care Bears Battle the Freeze Machine (en) (1984)
-Saison 1 (DIC, 1985)
-Saison 2 (Nelvana, 1986)
-Saison 3 (Nelvana, 1987)
-Saison 4 (Nelvana, 1988)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Les_Bisounours_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Bisounours_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Critiques</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans son livre Remote Control: Power, Cultures and the World of Appearances, Barbara Kruger parle de la série en tant que « a veritable position paper, a saccharinely preachy manifesto on 'caring.' »[6]
+ Source et légende : version québécoise (VQ) sur Doublage.qc.ca
 </t>
         </is>
       </c>
@@ -687,7 +707,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Les_Bisounours_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+          <t>Les_Bisounours_(série_télévisée_d'animation)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -702,10 +722,115 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs épisodes de 25 minutes contenaient deux histoires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_Bisounours_(série_télévisée_d'animation)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Bisounours_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spéciaux télé</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The Care Bears in the Land Without Feelings (en) (1983)
+The Care Bears Battle the Freeze Machine (en) (1984)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Les_Bisounours_(série_télévisée_d'animation)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Bisounours_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans son livre Remote Control: Power, Cultures and the World of Appearances, Barbara Kruger parle de la série en tant que « a veritable position paper, a saccharinely preachy manifesto on 'caring.' »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Les_Bisounours_(série_télévisée_d'animation)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Bisounours_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Autour de la série</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Au Québec, comme aux États-Unis, cette série fut diffusée en deux parties : à partir de 1985 Les Calinours (The Care Bears) et en 1986, La Famille Calinours (The Care Bear Family). La première ne comporte que des oursons mais la seconde voit apparaître les Calinours de deuxième génération avec d'autres animaux (lion, raton-laveur, moutons, etc.).
 Une chanson, Professeur cœur-de-pierre, a été diffusée en France le 29 août 1984 dans Croque-Vacances ; cette chanson n'a plus jamais été diffusée par la suite.[réf. nécessaire]</t>
